--- a/写入数据.xlsx
+++ b/写入数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="已创建的公司" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -71,16 +71,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,15 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,93 +193,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,25 +216,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,19 +312,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,133 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,41 +407,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,6 +421,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,7 +464,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,66 +507,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -915,13 +915,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
   </cols>
@@ -932,34 +932,43 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="8" customHeight="1"/>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/写入数据.xlsx
+++ b/写入数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>公司名称</t>
   </si>
@@ -30,10 +30,22 @@
     <t>多数据多账期</t>
   </si>
   <si>
+    <t>期初账多数据多账期0926</t>
+  </si>
+  <si>
     <t>多数据多账期-stage0831</t>
   </si>
   <si>
     <t>多数据多账期-dev0831</t>
+  </si>
+  <si>
+    <t>羊羊羊期初账0926</t>
+  </si>
+  <si>
+    <t>一般纳税人07272015</t>
+  </si>
+  <si>
+    <t>多数据多账期1025</t>
   </si>
 </sst>
 </file>
@@ -41,8 +53,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -70,66 +82,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -147,14 +99,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,40 +211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,25 +228,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,157 +384,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +419,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -421,26 +492,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,46 +515,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,53 +523,53 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -915,10 +927,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -946,6 +958,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>1</v>
@@ -953,22 +975,37 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/写入数据.xlsx
+++ b/写入数据.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="已创建的公司" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>公司名称</t>
   </si>
   <si>
-    <t>Test测试</t>
+    <t>一般纳税人1</t>
   </si>
   <si>
     <t>羊羊羊08291416</t>
@@ -38,6 +38,9 @@
   <si>
     <t>多数据多账期-dev0831</t>
   </si>
+  <si>
+    <t>test创建日期为10月小规模</t>
+  </si>
 </sst>
 </file>
 
@@ -66,6 +69,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -75,12 +100,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -90,7 +130,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,29 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,76 +212,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,49 +222,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,133 +360,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +413,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,45 +436,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +466,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -510,57 +498,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -918,7 +921,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -974,6 +977,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
